--- a/Assets/StreamingAssets/story/3.xlsx
+++ b/Assets/StreamingAssets/story/3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>安妮</t>
+  </si>
+  <si>
+    <t>我是选项三（选择后跳回主界面）</t>
   </si>
   <si>
     <t>Annie</t>
@@ -1039,12 +1042,12 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="9.66666666666667"/>
+    <col min="2" max="2" width="40.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="208.8" spans="1:11">
@@ -1086,11 +1089,11 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>33333333</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1102,30 +1105,25 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>18</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
   </sheetData>
